--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>last_name</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>waiting_for</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -484,25 +489,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>amalpullan4@gmail.com</t>
+          <t>bennypullan@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+919946658045</t>
+          <t>+919946957366</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>amal</t>
+          <t>benny</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>benny</t>
+          <t>pv</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>email</t>
         </is>
       </c>
     </row>
@@ -520,25 +530,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>akhil @#</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+918943194516</t>
+          <t>+919946658045</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>amal</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>pv</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>email</t>
         </is>
       </c>
     </row>
